--- a/ig/sd-add-completion-date/all-profiles.xlsx
+++ b/ig/sd-add-completion-date/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8216" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8348" uniqueCount="840">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:49+00:00</t>
+    <t>2024-01-15T15:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2380,6 +2380,53 @@
   </si>
   <si>
     <t>Identifies the start date and the expected (or actual, depending on status) end date for the study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1
+per-1</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.end</t>
+  </si>
+  <si>
+    <t>Date à laquelle l'essai se termine (la date initiale est prévisionnelle) / Completion date</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
   </si>
   <si>
     <t>ResearchStudy.sponsor</t>
@@ -4216,7 +4263,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>815</v>
+        <v>830</v>
       </c>
     </row>
     <row r="199">
@@ -4232,7 +4279,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>816</v>
+        <v>831</v>
       </c>
     </row>
     <row r="201">
@@ -4384,7 +4431,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>818</v>
+        <v>833</v>
       </c>
     </row>
     <row r="221">
@@ -4400,7 +4447,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>819</v>
+        <v>834</v>
       </c>
     </row>
     <row r="223">
@@ -4552,7 +4599,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>820</v>
+        <v>835</v>
       </c>
     </row>
     <row r="243">
@@ -4568,7 +4615,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>821</v>
+        <v>836</v>
       </c>
     </row>
     <row r="245">
@@ -4696,7 +4743,7 @@
         <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>822</v>
+        <v>837</v>
       </c>
     </row>
     <row r="262">
@@ -4720,7 +4767,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>823</v>
+        <v>838</v>
       </c>
     </row>
     <row r="265">
@@ -4736,7 +4783,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>824</v>
+        <v>839</v>
       </c>
     </row>
     <row r="267">
@@ -4874,7 +4921,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK233"/>
+  <dimension ref="A1:AK237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -25409,26 +25456,24 @@
         <v>83</v>
       </c>
       <c r="I196" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J196" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>766</v>
+        <v>85</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O196" s="2"/>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
         <v>76</v>
@@ -25477,7 +25522,7 @@
         <v>76</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>765</v>
+        <v>87</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>77</v>
@@ -25486,10 +25531,10 @@
         <v>83</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197">
@@ -25497,21 +25542,21 @@
         <v>491</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H197" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I197" t="s" s="2">
         <v>76</v>
@@ -25520,19 +25565,19 @@
         <v>76</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>769</v>
+        <v>89</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>770</v>
+        <v>174</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>771</v>
+        <v>237</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" t="s" s="2">
@@ -25570,31 +25615,31 @@
         <v>76</v>
       </c>
       <c r="AC197" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD197" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE197" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>768</v>
+        <v>94</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
     </row>
     <row r="198">
@@ -25602,10 +25647,10 @@
         <v>491</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25616,10 +25661,10 @@
         <v>77</v>
       </c>
       <c r="H198" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I198" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J198" t="s" s="2">
         <v>76</v>
@@ -25628,16 +25673,16 @@
         <v>133</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>283</v>
+        <v>771</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
@@ -25693,13 +25738,13 @@
         <v>77</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>80</v>
+        <v>773</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="199">
@@ -25707,10 +25752,10 @@
         <v>491</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25724,7 +25769,7 @@
         <v>83</v>
       </c>
       <c r="I199" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J199" t="s" s="2">
         <v>76</v>
@@ -25733,22 +25778,24 @@
         <v>133</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>118</v>
+        <v>768</v>
       </c>
       <c r="M199" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="N199" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="O199" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R199" s="2"/>
+      <c r="R199" t="s" s="2">
+        <v>778</v>
+      </c>
       <c r="S199" t="s" s="2">
         <v>76</v>
       </c>
@@ -25768,32 +25815,32 @@
         <v>76</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG199" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="AA199" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="AB199" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC199" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD199" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE199" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF199" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG199" t="s" s="2">
-        <v>776</v>
-      </c>
       <c r="AH199" t="s" s="2">
         <v>77</v>
       </c>
@@ -25801,7 +25848,7 @@
         <v>83</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>80</v>
+        <v>773</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>104</v>
@@ -25812,10 +25859,10 @@
         <v>491</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25826,28 +25873,28 @@
         <v>77</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I200" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J200" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="N200" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="M200" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>784</v>
-      </c>
       <c r="O200" t="s" s="2">
-        <v>785</v>
+        <v>283</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" t="s" s="2">
@@ -25897,19 +25944,19 @@
         <v>76</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="201">
@@ -25917,10 +25964,10 @@
         <v>491</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25931,7 +25978,7 @@
         <v>77</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I201" t="s" s="2">
         <v>76</v>
@@ -25940,18 +25987,20 @@
         <v>76</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>230</v>
+        <v>784</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="O201" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="O201" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
         <v>76</v>
@@ -26000,19 +26049,19 @@
         <v>76</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="202">
@@ -26020,10 +26069,10 @@
         <v>491</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -26034,27 +26083,29 @@
         <v>77</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I202" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J202" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>84</v>
+        <v>788</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>85</v>
+        <v>789</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O202" s="2"/>
+        <v>790</v>
+      </c>
+      <c r="O202" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
         <v>76</v>
@@ -26103,19 +26154,19 @@
         <v>76</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>87</v>
+        <v>787</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203">
@@ -26123,21 +26174,21 @@
         <v>491</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H203" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I203" t="s" s="2">
         <v>76</v>
@@ -26146,19 +26197,19 @@
         <v>76</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>174</v>
+        <v>792</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>237</v>
+        <v>793</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
@@ -26184,43 +26235,43 @@
         <v>76</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z203" t="s" s="2">
-        <v>76</v>
+        <v>794</v>
       </c>
       <c r="AA203" t="s" s="2">
-        <v>76</v>
+        <v>795</v>
       </c>
       <c r="AB203" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC203" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD203" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE203" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>94</v>
+        <v>791</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="204">
@@ -26228,14 +26279,14 @@
         <v>491</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
@@ -26248,26 +26299,24 @@
         <v>76</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>89</v>
+        <v>797</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>240</v>
+        <v>798</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>241</v>
+        <v>799</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P204" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
         <v>76</v>
       </c>
@@ -26315,7 +26364,7 @@
         <v>76</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>242</v>
+        <v>796</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>77</v>
@@ -26327,7 +26376,7 @@
         <v>80</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="205">
@@ -26335,10 +26384,10 @@
         <v>491</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26346,10 +26395,10 @@
       </c>
       <c r="F205" s="2"/>
       <c r="G205" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>76</v>
@@ -26361,17 +26410,15 @@
         <v>76</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="O205" s="2"/>
       <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
         <v>76</v>
@@ -26420,13 +26467,13 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>80</v>
@@ -26440,10 +26487,10 @@
         <v>491</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26466,17 +26513,15 @@
         <v>76</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>796</v>
+        <v>85</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O206" s="2"/>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
         <v>76</v>
@@ -26525,7 +26570,7 @@
         <v>76</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>795</v>
+        <v>87</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>77</v>
@@ -26534,10 +26579,10 @@
         <v>83</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207">
@@ -26545,21 +26590,21 @@
         <v>491</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H207" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I207" t="s" s="2">
         <v>76</v>
@@ -26571,16 +26616,16 @@
         <v>76</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>799</v>
+        <v>174</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>800</v>
+        <v>237</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
@@ -26618,31 +26663,31 @@
         <v>76</v>
       </c>
       <c r="AC207" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD207" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE207" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>798</v>
+        <v>94</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="208">
@@ -26650,14 +26695,14 @@
         <v>491</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" t="s" s="2">
@@ -26670,22 +26715,26 @@
         <v>76</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>802</v>
+        <v>240</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="O208" s="2"/>
-      <c r="P208" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O208" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P208" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q208" t="s" s="2">
         <v>76</v>
       </c>
@@ -26733,7 +26782,7 @@
         <v>76</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>801</v>
+        <v>242</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>77</v>
@@ -26745,7 +26794,7 @@
         <v>80</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="209">
@@ -26753,10 +26802,10 @@
         <v>491</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26764,7 +26813,7 @@
       </c>
       <c r="F209" s="2"/>
       <c r="G209" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>83</v>
@@ -26782,12 +26831,14 @@
         <v>84</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>85</v>
+        <v>808</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O209" s="2"/>
+        <v>809</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
         <v>76</v>
@@ -26836,19 +26887,19 @@
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>87</v>
+        <v>807</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI209" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="210">
@@ -26856,21 +26907,21 @@
         <v>491</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>76</v>
@@ -26882,16 +26933,16 @@
         <v>76</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>174</v>
+        <v>811</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>237</v>
+        <v>812</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
@@ -26929,31 +26980,31 @@
         <v>76</v>
       </c>
       <c r="AC210" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD210" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE210" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>94</v>
+        <v>810</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="211">
@@ -26961,46 +27012,44 @@
         <v>491</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I211" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>240</v>
+        <v>814</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>241</v>
+        <v>815</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P211" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
         <v>76</v>
       </c>
@@ -27048,19 +27097,19 @@
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>242</v>
+        <v>813</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="212">
@@ -27068,10 +27117,10 @@
         <v>491</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -27082,7 +27131,7 @@
         <v>77</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>76</v>
@@ -27094,17 +27143,15 @@
         <v>76</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="O212" s="2"/>
       <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
         <v>76</v>
@@ -27153,13 +27200,13 @@
         <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>80</v>
@@ -27173,10 +27220,10 @@
         <v>491</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -27199,17 +27246,15 @@
         <v>76</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>811</v>
+        <v>85</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O213" s="2"/>
       <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
         <v>76</v>
@@ -27234,13 +27279,13 @@
         <v>76</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="Z213" t="s" s="2">
-        <v>813</v>
+        <v>76</v>
       </c>
       <c r="AA213" t="s" s="2">
-        <v>814</v>
+        <v>76</v>
       </c>
       <c r="AB213" t="s" s="2">
         <v>76</v>
@@ -27258,7 +27303,7 @@
         <v>76</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>810</v>
+        <v>87</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>77</v>
@@ -27267,25 +27312,25 @@
         <v>83</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>31</v>
+        <v>820</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>31</v>
+        <v>820</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
@@ -27304,15 +27349,17 @@
         <v>76</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O214" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
         <v>76</v>
@@ -27349,19 +27396,19 @@
         <v>76</v>
       </c>
       <c r="AC214" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD214" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE214" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>77</v>
@@ -27378,45 +27425,49 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>82</v>
+        <v>821</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>82</v>
+        <v>821</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O215" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P215" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q215" t="s" s="2">
         <v>76</v>
       </c>
@@ -27464,30 +27515,30 @@
         <v>76</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>88</v>
+        <v>822</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>88</v>
+        <v>822</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27498,7 +27549,7 @@
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>76</v>
@@ -27510,15 +27561,17 @@
         <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>31</v>
+        <v>823</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O216" s="2"/>
+        <v>824</v>
+      </c>
+      <c r="O216" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P216" s="2"/>
       <c r="Q216" t="s" s="2">
         <v>76</v>
@@ -27555,42 +27608,42 @@
         <v>76</v>
       </c>
       <c r="AC216" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD216" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE216" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>94</v>
+        <v>822</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>95</v>
+        <v>825</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>95</v>
+        <v>825</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27598,7 +27651,7 @@
       </c>
       <c r="F217" s="2"/>
       <c r="G217" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
         <v>83</v>
@@ -27613,16 +27666,16 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>97</v>
+        <v>826</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>98</v>
+        <v>827</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="P217" s="2"/>
       <c r="Q217" t="s" s="2">
@@ -27630,7 +27683,7 @@
       </c>
       <c r="R217" s="2"/>
       <c r="S217" t="s" s="2">
-        <v>815</v>
+        <v>76</v>
       </c>
       <c r="T217" t="s" s="2">
         <v>76</v>
@@ -27648,13 +27701,13 @@
         <v>76</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>76</v>
+        <v>828</v>
       </c>
       <c r="AA217" t="s" s="2">
-        <v>76</v>
+        <v>829</v>
       </c>
       <c r="AB217" t="s" s="2">
         <v>76</v>
@@ -27672,19 +27725,19 @@
         <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>95</v>
+        <v>825</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="218">
@@ -27692,10 +27745,10 @@
         <v>509</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27706,7 +27759,7 @@
         <v>77</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>76</v>
@@ -27718,13 +27771,13 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>817</v>
+        <v>79</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
@@ -27775,30 +27828,30 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27809,7 +27862,7 @@
         <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
@@ -27821,13 +27874,13 @@
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>525</v>
+        <v>86</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
@@ -27878,30 +27931,30 @@
         <v>76</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27912,7 +27965,7 @@
         <v>77</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>76</v>
@@ -27924,13 +27977,13 @@
         <v>76</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
@@ -27969,42 +28022,42 @@
         <v>76</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD220" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -28012,10 +28065,10 @@
       </c>
       <c r="F221" s="2"/>
       <c r="G221" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>76</v>
@@ -28027,22 +28080,24 @@
         <v>76</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O221" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O221" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P221" s="2"/>
       <c r="Q221" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R221" s="2"/>
       <c r="S221" t="s" s="2">
-        <v>76</v>
+        <v>830</v>
       </c>
       <c r="T221" t="s" s="2">
         <v>76</v>
@@ -28072,42 +28127,42 @@
         <v>76</v>
       </c>
       <c r="AC221" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD221" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE221" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH221" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -28115,7 +28170,7 @@
       </c>
       <c r="F222" s="2"/>
       <c r="G222" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>83</v>
@@ -28130,24 +28185,22 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>96</v>
+        <v>832</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O222" s="2"/>
       <c r="P222" s="2"/>
       <c r="Q222" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R222" s="2"/>
       <c r="S222" t="s" s="2">
-        <v>818</v>
+        <v>76</v>
       </c>
       <c r="T222" t="s" s="2">
         <v>76</v>
@@ -28189,19 +28242,19 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="223">
@@ -28209,10 +28262,10 @@
         <v>522</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -28223,7 +28276,7 @@
         <v>77</v>
       </c>
       <c r="H223" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I223" t="s" s="2">
         <v>76</v>
@@ -28235,13 +28288,13 @@
         <v>76</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>103</v>
+        <v>525</v>
       </c>
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
@@ -28292,30 +28345,30 @@
         <v>76</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28326,7 +28379,7 @@
         <v>77</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
@@ -28338,13 +28391,13 @@
         <v>76</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>385</v>
+        <v>86</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
@@ -28395,30 +28448,30 @@
         <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28429,7 +28482,7 @@
         <v>77</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>76</v>
@@ -28441,13 +28494,13 @@
         <v>76</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
@@ -28486,42 +28539,42 @@
         <v>76</v>
       </c>
       <c r="AC225" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD225" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE225" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28529,10 +28582,10 @@
       </c>
       <c r="F226" s="2"/>
       <c r="G226" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H226" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I226" t="s" s="2">
         <v>76</v>
@@ -28544,22 +28597,24 @@
         <v>76</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O226" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P226" s="2"/>
       <c r="Q226" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R226" s="2"/>
       <c r="S226" t="s" s="2">
-        <v>76</v>
+        <v>833</v>
       </c>
       <c r="T226" t="s" s="2">
         <v>76</v>
@@ -28589,42 +28644,42 @@
         <v>76</v>
       </c>
       <c r="AC226" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD226" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE226" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28632,7 +28687,7 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>83</v>
@@ -28647,24 +28702,22 @@
         <v>76</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O227" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O227" s="2"/>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R227" s="2"/>
       <c r="S227" t="s" s="2">
-        <v>820</v>
+        <v>76</v>
       </c>
       <c r="T227" t="s" s="2">
         <v>76</v>
@@ -28706,19 +28759,19 @@
         <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="228">
@@ -28726,10 +28779,10 @@
         <v>382</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -28740,7 +28793,7 @@
         <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>76</v>
@@ -28752,13 +28805,13 @@
         <v>76</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>103</v>
+        <v>385</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
@@ -28809,30 +28862,30 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28843,7 +28896,7 @@
         <v>77</v>
       </c>
       <c r="H229" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I229" t="s" s="2">
         <v>76</v>
@@ -28855,13 +28908,13 @@
         <v>76</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>517</v>
+        <v>86</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
@@ -28912,30 +28965,30 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -28946,7 +28999,7 @@
         <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -28958,13 +29011,13 @@
         <v>76</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
@@ -29003,42 +29056,42 @@
         <v>76</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD230" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -29046,10 +29099,10 @@
       </c>
       <c r="F231" s="2"/>
       <c r="G231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I231" t="s" s="2">
         <v>76</v>
@@ -29061,22 +29114,24 @@
         <v>76</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O231" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O231" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R231" s="2"/>
       <c r="S231" t="s" s="2">
-        <v>76</v>
+        <v>835</v>
       </c>
       <c r="T231" t="s" s="2">
         <v>76</v>
@@ -29106,42 +29161,42 @@
         <v>76</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD231" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -29149,7 +29204,7 @@
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H232" t="s" s="2">
         <v>83</v>
@@ -29164,24 +29219,22 @@
         <v>76</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O232" s="2"/>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R232" s="2"/>
       <c r="S232" t="s" s="2">
-        <v>823</v>
+        <v>76</v>
       </c>
       <c r="T232" t="s" s="2">
         <v>76</v>
@@ -29223,19 +29276,19 @@
         <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI232" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="233">
@@ -29243,10 +29296,10 @@
         <v>514</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -29257,7 +29310,7 @@
         <v>77</v>
       </c>
       <c r="H233" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I233" t="s" s="2">
         <v>76</v>
@@ -29269,13 +29322,13 @@
         <v>76</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>103</v>
+        <v>517</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
@@ -29326,18 +29379,432 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI233" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ233" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK233" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H234" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R234" s="2"/>
+      <c r="S234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG234" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI234" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK234" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F235" s="2"/>
+      <c r="G235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L235" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R235" s="2"/>
+      <c r="S235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC235" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD235" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF235" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG235" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ235" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK235" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F236" s="2"/>
+      <c r="G236" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H236" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O236" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P236" s="2"/>
+      <c r="Q236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R236" s="2"/>
+      <c r="S236" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="T236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG236" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH236" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI236" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK236" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C237" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H237" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L237" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R237" s="2"/>
+      <c r="S237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG237" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI237" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ237" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK237" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/ig/sd-add-completion-date/all-profiles.xlsx
+++ b/ig/sd-add-completion-date/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:20:26+00:00</t>
+    <t>2024-01-15T16:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
